--- a/giovannitheproject/djsg/media/djsg/shifts/6月のShift.xlsx
+++ b/giovannitheproject/djsg/media/djsg/shifts/6月のShift.xlsx
@@ -37,10 +37,10 @@
     <t>b</t>
   </si>
   <si>
-    <t>c</t>
+    <t>d</t>
   </si>
   <si>
-    <t>d</t>
+    <t>s</t>
   </si>
   <si>
     <t>出勤日</t>
@@ -683,29 +683,29 @@
       <c r="B3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>4</v>
+      <c r="C3" s="7" t="n">
+        <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" s="7" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>4</v>
@@ -778,26 +778,26 @@
       <c r="B4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="n">
-        <v>1</v>
+      <c r="C4" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>4</v>
@@ -820,8 +820,8 @@
       <c r="P4" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Q4" s="7" t="s">
-        <v>4</v>
+      <c r="Q4" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>4</v>
@@ -841,8 +841,8 @@
       <c r="W4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="X4" s="7" t="s">
-        <v>4</v>
+      <c r="X4" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="Y4" s="7" t="s">
         <v>4</v>
@@ -873,74 +873,74 @@
       <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>4</v>
+      <c r="C5" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="X5" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="W5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="X5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="7" t="s">
-        <v>4</v>
       </c>
       <c r="Z5" s="7" t="s">
         <v>4</v>
@@ -968,11 +968,11 @@
       <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="7" t="n">
-        <v>2</v>
+      <c r="C6" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>4</v>
@@ -1014,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="S6" s="7" t="s">
         <v>4</v>
@@ -1031,11 +1031,11 @@
       <c r="W6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="X6" s="7" t="n">
-        <v>2</v>
+      <c r="X6" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="Y6" s="7" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="Z6" s="7" t="s">
         <v>4</v>
@@ -1183,10 +1183,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -1243,13 +1243,13 @@
         <v>3</v>
       </c>
       <c r="W3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X3" t="s">
         <v>3</v>
       </c>
       <c r="Y3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z3" t="s">
         <v>3</v>
@@ -1281,7 +1281,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -1341,10 +1341,10 @@
         <v>3</v>
       </c>
       <c r="X4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z4" t="s">
         <v>3</v>
@@ -1373,10 +1373,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -1394,7 +1394,7 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K5" t="s">
         <v>4</v>
@@ -1415,10 +1415,10 @@
         <v>4</v>
       </c>
       <c r="Q5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S5" t="s">
         <v>4</v>
@@ -1468,7 +1468,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -1531,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="X6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y6" t="s">
         <v>3</v>
@@ -1686,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -1728,7 +1728,7 @@
         <v>3</v>
       </c>
       <c r="Q3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R3" t="s">
         <v>4</v>
@@ -1749,7 +1749,7 @@
         <v>3</v>
       </c>
       <c r="X3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y3" t="s">
         <v>4</v>
@@ -1781,7 +1781,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -1802,7 +1802,7 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" t="s">
         <v>4</v>
@@ -1876,10 +1876,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -1897,7 +1897,7 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K5" t="s">
         <v>4</v>
@@ -1918,10 +1918,10 @@
         <v>4</v>
       </c>
       <c r="Q5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S5" t="s">
         <v>4</v>
@@ -1942,7 +1942,7 @@
         <v>3</v>
       </c>
       <c r="Y5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z5" t="s">
         <v>4</v>
@@ -1971,10 +1971,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -2016,7 +2016,7 @@
         <v>3</v>
       </c>
       <c r="R6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S6" t="s">
         <v>4</v>
@@ -2034,10 +2034,10 @@
         <v>4</v>
       </c>
       <c r="X6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="s">
         <v>4</v>
